--- a/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDEC66B-B074-44AA-ACB0-6C5A1E6A5CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300D8BC5-1D6C-4BDD-AF52-454604A06FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="114">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,89 +1045,6 @@
   </si>
   <si>
     <t>연가창식: 적룡질풍격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 이상 면역</t>
-  </si>
-  <si>
-    <t>상태 이상 면역</t>
-  </si>
-  <si>
-    <t>적 당겨오기</t>
-  </si>
-  <si>
-    <t>경직</t>
-  </si>
-  <si>
-    <t>피격 이상</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1차 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2차 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3차 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_3)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">돌진 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_4)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1202,23 +1119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">투사체 충돌 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>debuff_immune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1236,74 +1136,6 @@
   </si>
   <si>
     <t>치명타 적중률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">퍼펙트 존 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">일반 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">오버차지 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1697,13 +1529,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1차 폭발 공격 </t>
+    <t>적 당겨오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공격 </t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">퍼펙트 존 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1715,12 +1568,80 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2차 폭발 공격 </t>
+      <t xml:space="preserve">일반 공격 </t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">오버차지 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">투사체 충돌 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1737,7 +1658,75 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">돌진 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1757,7 +1746,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,8 +1935,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2004,12 +2010,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2501,17 +2513,54 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2520,7 +2569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2710,15 +2759,6 @@
     <xf numFmtId="177" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2728,6 +2768,33 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2755,32 +2822,23 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="23" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3261,7 +3319,7 @@
   <dimension ref="B1:F71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3277,11 +3335,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="10" t="s">
         <v>27</v>
       </c>
@@ -3305,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>0</v>
@@ -3347,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3365,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -3380,7 +3438,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -3395,7 +3453,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -3410,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -3425,7 +3483,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3440,7 +3498,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3451,13 +3509,13 @@
     </row>
     <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="C16" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -3471,14 +3529,14 @@
         <v>25</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="51">
@@ -3495,10 +3553,10 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="51">
@@ -3515,10 +3573,10 @@
       </c>
     </row>
     <row r="22" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="55">
@@ -3531,46 +3589,46 @@
         <v>32</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="58" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="58"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="58"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="58"/>
     </row>
     <row r="28" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="59"/>
     </row>
     <row r="29" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C30" s="60">
@@ -3583,48 +3641,48 @@
         <v>34</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="58" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="58" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="58"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="58"/>
     </row>
     <row r="35" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="59"/>
     </row>
     <row r="36" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C37" s="55">
@@ -3637,47 +3695,47 @@
         <v>36</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="58" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="58" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="58"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="58"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="81"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
       <c r="F42" s="58"/>
     </row>
     <row r="43" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="84"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="59"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
@@ -3772,16 +3830,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C38:E43"/>
     <mergeCell ref="C24:E28"/>
     <mergeCell ref="C31:E35"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3797,12 +3855,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" style="89" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
@@ -3865,11 +3923,11 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>112</v>
+      <c r="B2" s="84" t="s">
+        <v>98</v>
       </c>
       <c r="C2" s="16">
         <v>3050000</v>
@@ -3910,9 +3968,9 @@
       <c r="W2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63" t="s">
-        <v>113</v>
+      <c r="A3" s="87"/>
+      <c r="B3" s="84" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="16">
         <v>3050001</v>
@@ -3953,11 +4011,11 @@
       <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>114</v>
+      <c r="B4" s="84" t="s">
+        <v>100</v>
       </c>
       <c r="C4" s="16">
         <v>3050010</v>
@@ -3998,8 +4056,8 @@
       <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -4023,8 +4081,8 @@
       <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -4048,11 +4106,11 @@
       <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>85</v>
+      <c r="B7" s="84" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="16">
         <v>3051800</v>
@@ -4064,7 +4122,7 @@
         <v>1024</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
@@ -4091,9 +4149,9 @@
       <c r="W7" s="12"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63" t="s">
-        <v>86</v>
+      <c r="A8" s="87"/>
+      <c r="B8" s="84" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="16">
         <v>3051801</v>
@@ -4134,11 +4192,11 @@
       <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>85</v>
+      <c r="A9" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>75</v>
       </c>
       <c r="C9" s="16">
         <v>3051810</v>
@@ -4150,7 +4208,7 @@
         <v>1024</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
@@ -4177,9 +4235,9 @@
       <c r="W9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63" t="s">
-        <v>86</v>
+      <c r="A10" s="87"/>
+      <c r="B10" s="84" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="16">
         <v>3051811</v>
@@ -4220,14 +4278,14 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>78</v>
+      <c r="A11" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -4251,11 +4309,11 @@
       <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>86</v>
+      <c r="B12" s="84" t="s">
+        <v>102</v>
       </c>
       <c r="C12" s="16">
         <v>3052500</v>
@@ -4296,9 +4354,9 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63" t="s">
-        <v>87</v>
+      <c r="A13" s="87"/>
+      <c r="B13" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="C13" s="16">
         <v>3052501</v>
@@ -4339,11 +4397,11 @@
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>88</v>
+      <c r="A14" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>104</v>
       </c>
       <c r="C14" s="16">
         <v>3052510</v>
@@ -4384,9 +4442,9 @@
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63" t="s">
-        <v>89</v>
+      <c r="A15" s="87"/>
+      <c r="B15" s="84" t="s">
+        <v>105</v>
       </c>
       <c r="C15" s="16">
         <v>3052511</v>
@@ -4427,10 +4485,10 @@
       <c r="W15" s="12"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="84" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="16">
@@ -4446,7 +4504,7 @@
         <v>61</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>24</v>
@@ -4472,8 +4530,8 @@
       <c r="W16" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="84" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="16">
@@ -4489,7 +4547,7 @@
         <v>61</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>24</v>
@@ -4515,8 +4573,8 @@
       <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="84" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="16">
@@ -4558,9 +4616,9 @@
       <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65" t="s">
-        <v>80</v>
+      <c r="A19" s="88"/>
+      <c r="B19" s="84" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="16">
         <v>3052603</v>
@@ -4601,9 +4659,9 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65" t="s">
-        <v>115</v>
+      <c r="A20" s="88"/>
+      <c r="B20" s="84" t="s">
+        <v>107</v>
       </c>
       <c r="C20" s="16">
         <v>3052604</v>
@@ -4644,9 +4702,9 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65" t="s">
-        <v>116</v>
+      <c r="A21" s="88"/>
+      <c r="B21" s="84" t="s">
+        <v>108</v>
       </c>
       <c r="C21" s="16">
         <v>3052605</v>
@@ -4687,9 +4745,9 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65" t="s">
-        <v>117</v>
+      <c r="A22" s="88"/>
+      <c r="B22" s="84" t="s">
+        <v>109</v>
       </c>
       <c r="C22" s="16">
         <v>3052606</v>
@@ -4730,9 +4788,9 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65" t="s">
-        <v>83</v>
+      <c r="A23" s="88"/>
+      <c r="B23" s="84" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="16">
         <v>3052607</v>
@@ -4747,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>62</v>
@@ -4773,9 +4831,9 @@
       <c r="W23" s="12"/>
     </row>
     <row r="24" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65" t="s">
-        <v>84</v>
+      <c r="A24" s="87"/>
+      <c r="B24" s="84" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="16">
         <v>3052608</v>
@@ -4790,7 +4848,7 @@
         <v>41</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>24</v>
@@ -4816,11 +4874,11 @@
       <c r="W24" s="12"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="65" t="s">
-        <v>68</v>
+      <c r="B25" s="84" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="16">
         <v>3052700</v>
@@ -4835,7 +4893,7 @@
         <v>61</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>62</v>
@@ -4861,9 +4919,9 @@
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65" t="s">
-        <v>69</v>
+      <c r="A26" s="88"/>
+      <c r="B26" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="16">
         <v>3052701</v>
@@ -4878,7 +4936,7 @@
         <v>61</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>62</v>
@@ -4904,9 +4962,9 @@
       <c r="W26" s="11"/>
     </row>
     <row r="27" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65" t="s">
-        <v>73</v>
+      <c r="A27" s="88"/>
+      <c r="B27" s="84" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="16">
         <v>3052702</v>
@@ -4947,9 +5005,9 @@
       <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65" t="s">
-        <v>70</v>
+      <c r="A28" s="88"/>
+      <c r="B28" s="84" t="s">
+        <v>101</v>
       </c>
       <c r="C28" s="16">
         <v>3052703</v>
@@ -4964,7 +5022,7 @@
         <v>41</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>62</v>
@@ -4990,9 +5048,9 @@
       <c r="W28" s="12"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65" t="s">
-        <v>74</v>
+      <c r="A29" s="88"/>
+      <c r="B29" s="84" t="s">
+        <v>111</v>
       </c>
       <c r="C29" s="16">
         <v>3052704</v>
@@ -5033,9 +5091,9 @@
       <c r="W29" s="12"/>
     </row>
     <row r="30" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65" t="s">
-        <v>75</v>
+      <c r="A30" s="88"/>
+      <c r="B30" s="84" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="16">
         <v>3052705</v>
@@ -5076,9 +5134,9 @@
       <c r="W30" s="12"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65" t="s">
-        <v>76</v>
+      <c r="A31" s="88"/>
+      <c r="B31" s="84" t="s">
+        <v>113</v>
       </c>
       <c r="C31" s="16">
         <v>3052706</v>
@@ -5108,9 +5166,9 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65" t="s">
-        <v>71</v>
+      <c r="A32" s="88"/>
+      <c r="B32" s="84" t="s">
+        <v>73</v>
       </c>
       <c r="C32" s="16">
         <v>3052707</v>
@@ -5125,7 +5183,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>62</v>
@@ -5140,9 +5198,9 @@
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65" t="s">
-        <v>72</v>
+      <c r="A33" s="87"/>
+      <c r="B33" s="84" t="s">
+        <v>74</v>
       </c>
       <c r="C33" s="16">
         <v>3052708</v>
@@ -5157,7 +5215,7 @@
         <v>41</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>62</v>
@@ -5242,6 +5300,15 @@
       <c r="J39" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300D8BC5-1D6C-4BDD-AF52-454604A06FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E127BC-F13D-48B3-827B-B338BC4FDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -630,161 +630,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{3FB097E6-113A-4842-90DD-E55AA8362305}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t># 효과 적용 영역
-DEFAULT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 기본값 (영역을 새로 지정하지 않음)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MELEE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 근접 (무기 범위)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>PROJECTILE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 발사체
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">CIRCLE </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 원형 범위</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-FAN </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 부채꼴 범위</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-RECTANGLE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 사각형 범위
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,10 +669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -898,10 +745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기가 적중하면 효과 적용 (무기의 충돌 영역 그대로 활용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발사체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,15 +757,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부채꼴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECTANGLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1164,7 +999,52 @@
   </si>
   <si>
     <r>
-      <t>스킬 테이블</t>
+      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>원의 중심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(영역의 기준점)</t>
     </r>
     <r>
       <rPr>
@@ -1175,8 +1055,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Skill_Table.xlsx)</t>
-    </r>
+      <t>과 대상 사이의 거리가 반지름보다 작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1187,13 +1070,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>의 ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이펙트 테이블</t>
+      <t>v1</t>
     </r>
     <r>
       <rPr>
@@ -1204,8 +1081,39 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Effect_Table.xlsx)</t>
-    </r>
+      <t xml:space="preserve"> : 반지름</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>중심선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(빨간 점선)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1216,116 +1124,24 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">의 ID </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
+      <t>v2</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 적용 영역 유형 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 첫 번째 값 - v1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역 두 번째 값 - v2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(아래 '영역 설명' 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">영역을 따로(추가로) 지정할 필요가 없는 경우 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex) 적중 대상에게 적용되는 효과, 자기 자신에게만 적용되는 효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>원의 중심</t>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 중심각의 절반</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>로컬 좌표를 기준으로 대상</t>
     </r>
     <r>
       <rPr>
@@ -1336,7 +1152,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(영역의 기준점)</t>
+      <t>(점)</t>
     </r>
     <r>
       <rPr>
@@ -1347,7 +1163,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>과 대상 사이의 거리가 반지름보다 작을 때 효과 적용</t>
+      <t>과 네 꼭짓점의 좌표를 비교하여 
+대상이 사각형 내부에 있을 때 효과 적용</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,35 +1190,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 반지름</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>중심선</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(빨간 점선)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 작을 때 효과 적용</t>
+      <t xml:space="preserve"> : 가로 (캐릭터 정면 기준)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1427,25 +1216,235 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 중심각의 절반</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>로컬 좌표를 기준으로 대상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(점)</t>
-    </r>
+      <t xml:space="preserve"> : 세로 (캐릭터 정면 기준)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//스킬 &amp; 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 당겨오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">퍼펙트 존 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일반 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">오버차지 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">투사체 충돌 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">돌진 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1455,12 +1454,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>과 네 꼭짓점의 좌표를 비교하여 
-대상이 사각형 내부에 있을 때 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">영역 첫 번째 값 - </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1471,8 +1466,22 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v1</t>
-    </r>
+      <t xml:space="preserve">v1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1482,11 +1491,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 가로 (캐릭터 정면 기준)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">영역 두 번째 값 - </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1497,7 +1503,128 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v2</t>
+      <t xml:space="preserve">v2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skill_Table.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 PK)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이펙트 ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effect_Table.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 PK)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 적용 영역 유형
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 자신 </t>
     </r>
     <r>
       <rPr>
@@ -1508,232 +1635,276 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 세로 (캐릭터 정면 기준)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//스킬 &amp; 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 당겨오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">공격 </t>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">퍼펙트 존 공격 </t>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 적중된 대상</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">일반 공격 </t>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">오버차지 공격 </t>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 근접</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">투사체 충돌 </t>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1차 폭발 공격 </t>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 발사체</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2차 폭발 공격 </t>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_3)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3차 폭발 공격 </t>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 원형</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_4)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1차 공격 </t>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2차 공격 </t>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 부채꼴</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3차 공격 </t>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_3)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">돌진 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_4)</t>
-    </r>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 사각형</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중된 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중된 대상에게 효과 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 자신에게 효과 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기에 연결된 충돌 박스에 충돌하면 효과 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,7 +1917,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1952,6 +2123,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2569,7 +2766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2666,9 +2863,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2681,9 +2875,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2696,9 +2887,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2708,9 +2896,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2719,9 +2904,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2768,77 +2950,104 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="23" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="23" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="23" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="23" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="23" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2871,16 +3080,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>436410</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94768</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>291630</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1095175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>630355</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2908,7 +3117,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1335570" y="4704868"/>
+          <a:off x="870750" y="4781068"/>
           <a:ext cx="658765" cy="651992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2920,16 +3129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>351443</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>54043</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>275243</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1084895</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>688655</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2957,7 +3166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1250603" y="6020503"/>
+          <a:off x="854363" y="6066223"/>
           <a:ext cx="733452" cy="669857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2971,13 +3180,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>260295</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>72201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3006,7 +3215,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="839415" y="7421880"/>
+          <a:off x="839415" y="7437120"/>
           <a:ext cx="1698045" cy="811341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3316,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:F71"/>
+  <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3335,13 +3544,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3349,13 +3558,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3363,398 +3572,413 @@
         <v>0</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>16</v>
+      <c r="F4" s="88" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <f>ROW(C5)-4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>20</v>
+      <c r="F5" s="92" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <f t="shared" ref="C6:C12" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>82</v>
+      <c r="F6" s="91" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>83</v>
+      <c r="F7" s="91" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="43">
+      <c r="C8" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>84</v>
+      <c r="D8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="43">
+      <c r="C9" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="43">
+      <c r="D9" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C10" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>86</v>
+      <c r="D10" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="43">
+      <c r="C11" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>87</v>
+      <c r="D11" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="43">
+      <c r="C12" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>88</v>
+      <c r="D12" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-    </row>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="93"/>
+    </row>
+    <row r="14" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="46">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+    </row>
+    <row r="19" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="46">
+        <v>1</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+    </row>
+    <row r="21" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="46">
+        <v>2</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+    </row>
+    <row r="23" spans="3:6" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="46">
+        <v>3</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="50">
+        <v>4</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="51">
-        <v>1</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-    </row>
-    <row r="19" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="51">
-        <v>2</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-    </row>
-    <row r="21" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="51">
-        <v>3</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="54" t="s">
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="53"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+    </row>
+    <row r="32" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C32" s="55">
+        <v>5</v>
+      </c>
+      <c r="D32" s="56" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="55">
-        <v>4</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="56" t="s">
+      <c r="E32" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="53"/>
+    </row>
+    <row r="37" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
+    </row>
+    <row r="39" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C39" s="50">
+        <v>6</v>
+      </c>
+      <c r="D39" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-    </row>
-    <row r="30" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="C30" s="60">
-        <v>5</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="58"/>
-    </row>
-    <row r="35" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="59"/>
-    </row>
-    <row r="36" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="65"/>
-    </row>
-    <row r="37" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="C37" s="55">
-        <v>6</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="58" t="s">
-        <v>96</v>
+      <c r="E39" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="58"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="53" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="58"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="53" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="58"/>
-    </row>
-    <row r="43" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="59"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="53"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="53"/>
+    </row>
+    <row r="45" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="54"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C48" s="12"/>
@@ -3828,18 +4052,24 @@
     <row r="71" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C71" s="12"/>
     </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C73" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C40:E45"/>
+    <mergeCell ref="C26:E30"/>
+    <mergeCell ref="C33:E37"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C38:E43"/>
-    <mergeCell ref="C24:E28"/>
-    <mergeCell ref="C31:E35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3853,14 +4083,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
@@ -3878,35 +4108,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>47</v>
+      <c r="A1" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -3923,11 +4153,11 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>98</v>
+      <c r="A2" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>88</v>
       </c>
       <c r="C2" s="16">
         <v>3050000</v>
@@ -3939,13 +4169,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>0</v>
@@ -3969,8 +4199,8 @@
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="87"/>
-      <c r="B3" s="84" t="s">
-        <v>99</v>
+      <c r="B3" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="16">
         <v>3050001</v>
@@ -3982,13 +4212,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>0</v>
@@ -4011,11 +4241,11 @@
       <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>100</v>
+      <c r="A4" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>90</v>
       </c>
       <c r="C4" s="16">
         <v>3050010</v>
@@ -4027,13 +4257,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>0</v>
@@ -4056,8 +4286,8 @@
       <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="85"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -4081,8 +4311,8 @@
       <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="85"/>
-      <c r="B6" s="84"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -4106,11 +4336,11 @@
       <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>75</v>
+      <c r="A7" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="16">
         <v>3051800</v>
@@ -4122,11 +4352,11 @@
         <v>1024</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>0</v>
@@ -4150,8 +4380,8 @@
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="87"/>
-      <c r="B8" s="84" t="s">
-        <v>102</v>
+      <c r="B8" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="C8" s="16">
         <v>3051801</v>
@@ -4163,13 +4393,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="17">
         <v>4</v>
@@ -4192,11 +4422,11 @@
       <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>75</v>
+      <c r="A9" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="16">
         <v>3051810</v>
@@ -4208,11 +4438,11 @@
         <v>1024</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>0</v>
@@ -4236,8 +4466,8 @@
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="87"/>
-      <c r="B10" s="84" t="s">
-        <v>102</v>
+      <c r="B10" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="C10" s="16">
         <v>3051811</v>
@@ -4249,13 +4479,13 @@
         <v>100</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="17">
         <v>4</v>
@@ -4278,14 +4508,14 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>69</v>
+      <c r="A11" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -4309,11 +4539,11 @@
       <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>102</v>
+      <c r="A12" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="16">
         <v>3052500</v>
@@ -4325,13 +4555,13 @@
         <v>100</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I12" s="17">
         <v>4</v>
@@ -4355,8 +4585,8 @@
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="87"/>
-      <c r="B13" s="84" t="s">
-        <v>103</v>
+      <c r="B13" s="61" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="16">
         <v>3052501</v>
@@ -4368,13 +4598,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="17">
         <v>4</v>
@@ -4397,11 +4627,11 @@
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>104</v>
+      <c r="A14" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>94</v>
       </c>
       <c r="C14" s="16">
         <v>3052510</v>
@@ -4413,13 +4643,13 @@
         <v>100</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I14" s="17">
         <v>4</v>
@@ -4443,8 +4673,8 @@
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="87"/>
-      <c r="B15" s="84" t="s">
-        <v>105</v>
+      <c r="B15" s="61" t="s">
+        <v>95</v>
       </c>
       <c r="C15" s="16">
         <v>3052511</v>
@@ -4456,13 +4686,13 @@
         <v>100</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="17">
         <v>4</v>
@@ -4485,11 +4715,11 @@
       <c r="W15" s="12"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>51</v>
+      <c r="A16" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="16">
         <v>3052600</v>
@@ -4501,13 +4731,13 @@
         <v>3001</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>0</v>
@@ -4530,9 +4760,9 @@
       <c r="W16" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="88"/>
-      <c r="B17" s="84" t="s">
-        <v>39</v>
+      <c r="A17" s="86"/>
+      <c r="B17" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="16">
         <v>3052601</v>
@@ -4544,13 +4774,13 @@
         <v>3002</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>0</v>
@@ -4573,9 +4803,9 @@
       <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="88"/>
-      <c r="B18" s="84" t="s">
-        <v>52</v>
+      <c r="A18" s="86"/>
+      <c r="B18" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="C18" s="16">
         <v>3052602</v>
@@ -4587,13 +4817,13 @@
         <v>6001</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>0</v>
@@ -4616,9 +4846,9 @@
       <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="88"/>
-      <c r="B19" s="84" t="s">
-        <v>106</v>
+      <c r="A19" s="86"/>
+      <c r="B19" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="C19" s="16">
         <v>3052603</v>
@@ -4630,13 +4860,13 @@
         <v>100</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>0</v>
@@ -4659,9 +4889,9 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="88"/>
-      <c r="B20" s="84" t="s">
-        <v>107</v>
+      <c r="A20" s="86"/>
+      <c r="B20" s="61" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="16">
         <v>3052604</v>
@@ -4673,13 +4903,13 @@
         <v>100</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="17">
         <v>8</v>
@@ -4702,9 +4932,9 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="88"/>
-      <c r="B21" s="84" t="s">
-        <v>108</v>
+      <c r="A21" s="86"/>
+      <c r="B21" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="16">
         <v>3052605</v>
@@ -4716,13 +4946,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="17">
         <v>8</v>
@@ -4745,9 +4975,9 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="88"/>
-      <c r="B22" s="84" t="s">
-        <v>109</v>
+      <c r="A22" s="86"/>
+      <c r="B22" s="61" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="16">
         <v>3052606</v>
@@ -4759,13 +4989,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="17">
         <v>8</v>
@@ -4788,9 +5018,9 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="88"/>
-      <c r="B23" s="84" t="s">
-        <v>73</v>
+      <c r="A23" s="86"/>
+      <c r="B23" s="61" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="16">
         <v>3052607</v>
@@ -4802,13 +5032,13 @@
         <v>4000</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>0</v>
@@ -4832,8 +5062,8 @@
     </row>
     <row r="24" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="87"/>
-      <c r="B24" s="84" t="s">
-        <v>74</v>
+      <c r="B24" s="61" t="s">
+        <v>70</v>
       </c>
       <c r="C24" s="16">
         <v>3052608</v>
@@ -4845,13 +5075,13 @@
         <v>4001</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>0</v>
@@ -4874,11 +5104,11 @@
       <c r="W24" s="12"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="84" t="s">
-        <v>51</v>
+      <c r="A25" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="16">
         <v>3052700</v>
@@ -4890,13 +5120,13 @@
         <v>3001</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>0</v>
@@ -4919,9 +5149,9 @@
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="88"/>
-      <c r="B26" s="84" t="s">
-        <v>39</v>
+      <c r="A26" s="86"/>
+      <c r="B26" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="16">
         <v>3052701</v>
@@ -4933,13 +5163,13 @@
         <v>3002</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>0</v>
@@ -4962,9 +5192,9 @@
       <c r="W26" s="11"/>
     </row>
     <row r="27" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="88"/>
-      <c r="B27" s="84" t="s">
-        <v>110</v>
+      <c r="A27" s="86"/>
+      <c r="B27" s="61" t="s">
+        <v>100</v>
       </c>
       <c r="C27" s="16">
         <v>3052702</v>
@@ -4976,13 +5206,13 @@
         <v>100</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I27" s="17">
         <v>5</v>
@@ -5005,9 +5235,9 @@
       <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="88"/>
-      <c r="B28" s="84" t="s">
-        <v>101</v>
+      <c r="A28" s="86"/>
+      <c r="B28" s="61" t="s">
+        <v>91</v>
       </c>
       <c r="C28" s="16">
         <v>3052703</v>
@@ -5019,13 +5249,13 @@
         <v>4000</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>0</v>
@@ -5048,9 +5278,9 @@
       <c r="W28" s="12"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="88"/>
-      <c r="B29" s="84" t="s">
-        <v>111</v>
+      <c r="A29" s="86"/>
+      <c r="B29" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="16">
         <v>3052704</v>
@@ -5062,13 +5292,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I29" s="17">
         <v>10</v>
@@ -5091,9 +5321,9 @@
       <c r="W29" s="12"/>
     </row>
     <row r="30" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="88"/>
-      <c r="B30" s="84" t="s">
-        <v>112</v>
+      <c r="A30" s="86"/>
+      <c r="B30" s="61" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="16">
         <v>3052705</v>
@@ -5105,13 +5335,13 @@
         <v>100</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I30" s="17">
         <v>10</v>
@@ -5134,9 +5364,9 @@
       <c r="W30" s="12"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="88"/>
-      <c r="B31" s="84" t="s">
-        <v>113</v>
+      <c r="A31" s="86"/>
+      <c r="B31" s="61" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="16">
         <v>3052706</v>
@@ -5148,13 +5378,13 @@
         <v>100</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I31" s="17">
         <v>10</v>
@@ -5166,9 +5396,9 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="88"/>
-      <c r="B32" s="84" t="s">
-        <v>73</v>
+      <c r="A32" s="86"/>
+      <c r="B32" s="61" t="s">
+        <v>69</v>
       </c>
       <c r="C32" s="16">
         <v>3052707</v>
@@ -5180,13 +5410,13 @@
         <v>4000</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>0</v>
@@ -5199,8 +5429,8 @@
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="87"/>
-      <c r="B33" s="84" t="s">
-        <v>74</v>
+      <c r="B33" s="61" t="s">
+        <v>70</v>
       </c>
       <c r="C33" s="16">
         <v>3052708</v>
@@ -5212,13 +5442,13 @@
         <v>4001</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>0</v>

--- a/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E127BC-F13D-48B3-827B-B338BC4FDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF4134B-A352-48D4-A2AE-3ADBE3283835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -36,606 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>홍진선</author>
-  </authors>
-  <commentList>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{4995B60B-8438-4D5E-AF4C-07D21607FADE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t># 효과 발동 조건</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-ON_HIT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 공격 적중 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_CRIT_HIT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 치명타 공격 적중 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_HIT_RECEIVED</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 피격 시</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-ON_SKILL_CAST</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 스킬 시전 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>WHILE_SKILL_CAST</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 스킬 시전 중</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-ON_SKILL_USE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 스킬 사용 시 (=시전 완료 시)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_DEATH</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 사망 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_KILL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 대상 처치 시 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_AREA_ENTER</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 효과 적용 영역 내 위치 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_AREA_EXIT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 영역 밖으로 나갈 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>WHILE_IN_AREA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 영역 내 위치하는 동안 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>등등</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{993BF568-5484-4349-91F5-B8D1B8100683}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>[</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>트리거</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>식별</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>태그</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>]
-atk_N</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : N</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>차</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hit_N</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : N</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타격
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>target_grade_*</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : * </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등급의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>target_grade_up_*</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : * </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등급</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이상의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="111">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill-Effect Table Schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,18 +175,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trigger_tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ON_HIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ON_OBJECT_SPAWN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,49 +226,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atk_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_1_perfect_zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_1_overcharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHILE_SKILL_CASTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT</t>
   </si>
   <si>
-    <t>atk_1</t>
-  </si>
-  <si>
-    <t>atk_2</t>
-  </si>
-  <si>
-    <t>atk_3</t>
-  </si>
-  <si>
-    <t>atk_4</t>
-  </si>
-  <si>
     <t>연가창식: 적룡질풍격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,14 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>debuff_immune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push_immune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경직</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,57 +324,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paraysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영역 설명(area_type, area_value)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">효과 발동 조건 1 - 트리거 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 조건 2 - 트리거 식별 태그 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>원의 중심</t>
     </r>
     <r>
@@ -1087,21 +383,8 @@
   </si>
   <si>
     <r>
-      <t>중심선</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(빨간 점선)</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -1109,14 +392,10 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 작을 때 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>v2</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -1124,47 +403,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> : 중심각의 절반</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>로컬 좌표를 기준으로 대상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(점)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>과 네 꼭짓점의 좌표를 비교하여 
-대상이 사각형 내부에 있을 때 효과 적용</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1905,6 +1144,435 @@
   </si>
   <si>
     <t>무기에 연결된 충돌 박스에 충돌하면 효과 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>중심선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(빨간 점선)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 
+작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>로컬 좌표를 기준으로 대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(점)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 네 꼭짓점의 좌표를 비교하여 대상이 
+사각형 내부에 있을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECTANGLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_index_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_index_2</t>
+  </si>
+  <si>
+    <t>atk_index_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_index_3</t>
+  </si>
+  <si>
+    <t>atk_index_4</t>
+  </si>
+  <si>
+    <t>hit_index_1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_3_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHILE_SKILL_CAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 트리거 (효과 발동 조건)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON_HIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 적중 시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON_SKILL_CAST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 스킬 시전 시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHILE_SKILL_CAST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 스킬 시전 중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON_AREA_ENTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 효과 적용 영역에 진입 시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHILE_IN_AREA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 영역 내 위치하는 동안 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">트리거 세부 필터
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hit_index_n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: n번째 타격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>targer_grade_upper_""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ""등급 이상의 적 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1917,7 +1585,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1959,38 +1627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -2022,28 +1658,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -2099,14 +1713,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="0"/>
@@ -2150,7 +1756,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2190,12 +1796,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2766,7 +2366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2797,257 +2397,239 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3080,16 +2662,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>291630</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>155728</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504990</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>630355</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3117,7 +2699,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="870750" y="4781068"/>
+          <a:off x="1404150" y="4011448"/>
           <a:ext cx="658765" cy="651992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3129,16 +2711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>275243</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>84523</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381922</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>688655</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129539</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3166,8 +2748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="854363" y="6066223"/>
-          <a:ext cx="733452" cy="669857"/>
+          <a:off x="1281082" y="5106103"/>
+          <a:ext cx="806797" cy="736843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3178,15 +2760,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>260295</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1215</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>72201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3215,7 +2797,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="839415" y="7437120"/>
+          <a:off x="900375" y="6385560"/>
           <a:ext cx="1698045" cy="811341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3524,11 +3106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:F73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
+  <dimension ref="B1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3536,21 +3118,21 @@
     <col min="1" max="1" width="3.19921875" style="11" customWidth="1"/>
     <col min="2" max="2" width="4.3984375" style="25" customWidth="1"/>
     <col min="3" max="3" width="4.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="61.69921875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="26" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3572,12 +3154,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="61" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3595,7 +3177,7 @@
       <c r="E5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="65" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3613,8 +3195,8 @@
       <c r="E6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="91" t="s">
-        <v>106</v>
+      <c r="F6" s="64" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3631,11 +3213,11 @@
       <c r="E7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="39.6" x14ac:dyDescent="0.4">
       <c r="C8" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3644,25 +3226,25 @@
         <v>20</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C9" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="26.4" x14ac:dyDescent="0.4">
@@ -3676,8 +3258,8 @@
       <c r="E10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="90" t="s">
-        <v>108</v>
+      <c r="F10" s="63" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -3686,13 +3268,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>104</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3701,31 +3283,31 @@
         <v>8</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>105</v>
+        <v>32</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="43"/>
       <c r="D13" s="44"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="93"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3733,252 +3315,234 @@
         <v>0</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>93</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
+      <c r="C18" s="46">
+        <v>1</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>111</v>
+        <v>26</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-    </row>
-    <row r="21" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="46">
-        <v>2</v>
-      </c>
-      <c r="D21" s="47" t="s">
+      <c r="C20" s="46">
+        <v>3</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-    </row>
-    <row r="23" spans="3:6" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="46">
-        <v>3</v>
-      </c>
-      <c r="D23" s="47" t="s">
+      <c r="E20" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="49" t="s">
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C21" s="50">
+        <v>4</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="E21" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="50">
-        <v>4</v>
-      </c>
-      <c r="D25" s="51" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C27" s="55">
+        <v>5</v>
+      </c>
+      <c r="D27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="53"/>
+      <c r="E27" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="53" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="53"/>
-    </row>
-    <row r="30" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="54"/>
-    </row>
-    <row r="31" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-    </row>
-    <row r="32" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="C32" s="55">
-        <v>5</v>
-      </c>
-      <c r="D32" s="56" t="s">
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C33" s="50">
+        <v>6</v>
+      </c>
+      <c r="D33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="53" t="s">
-        <v>81</v>
+      <c r="E33" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="53" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="53"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="53" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="53"/>
     </row>
-    <row r="37" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="54"/>
-    </row>
-    <row r="38" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
-    </row>
-    <row r="39" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="C39" s="50">
-        <v>6</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>84</v>
-      </c>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="53"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="53" t="s">
-        <v>85</v>
-      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="53" t="s">
-        <v>86</v>
-      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="53"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="53"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="54"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C48" s="12"/>
@@ -4040,42 +3604,18 @@
     <row r="67" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C67" s="12"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" s="12"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" s="12"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" s="12"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C71" s="12"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="12"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C40:E45"/>
-    <mergeCell ref="C26:E30"/>
-    <mergeCell ref="C33:E37"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:F24"/>
+  <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C34:E39"/>
+    <mergeCell ref="C22:E26"/>
+    <mergeCell ref="C28:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4083,20 +3623,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:J24"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.09765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="9" customWidth="1"/>
     <col min="9" max="10" width="7.5" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15.69921875" style="8" customWidth="1"/>
@@ -4109,10 +3649,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>8</v>
@@ -4127,16 +3667,16 @@
         <v>20</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4153,11 +3693,11 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>88</v>
+      <c r="A2" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>65</v>
       </c>
       <c r="C2" s="16">
         <v>3050000</v>
@@ -4169,10 +3709,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>22</v>
@@ -4198,9 +3738,9 @@
       <c r="W2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="87"/>
-      <c r="B3" s="61" t="s">
-        <v>89</v>
+      <c r="A3" s="84"/>
+      <c r="B3" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="16">
         <v>3050001</v>
@@ -4212,10 +3752,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -4241,11 +3781,11 @@
       <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>90</v>
+      <c r="A4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="C4" s="16">
         <v>3050010</v>
@@ -4257,10 +3797,10 @@
         <v>100</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>22</v>
@@ -4286,8 +3826,8 @@
       <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -4311,8 +3851,8 @@
       <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -4336,11 +3876,11 @@
       <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>71</v>
+      <c r="A7" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="16">
         <v>3051800</v>
@@ -4352,9 +3892,11 @@
         <v>1024</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" s="16" t="s">
         <v>23</v>
       </c>
@@ -4379,9 +3921,9 @@
       <c r="W7" s="12"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="87"/>
-      <c r="B8" s="61" t="s">
-        <v>92</v>
+      <c r="A8" s="84"/>
+      <c r="B8" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="16">
         <v>3051801</v>
@@ -4393,10 +3935,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>18</v>
@@ -4422,11 +3964,11 @@
       <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>71</v>
+      <c r="A9" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="16">
         <v>3051810</v>
@@ -4438,9 +3980,11 @@
         <v>1024</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
@@ -4465,9 +4009,9 @@
       <c r="W9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="87"/>
-      <c r="B10" s="61" t="s">
-        <v>92</v>
+      <c r="A10" s="84"/>
+      <c r="B10" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="16">
         <v>3051811</v>
@@ -4479,10 +4023,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>18</v>
@@ -4508,14 +4052,14 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>65</v>
+      <c r="A11" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -4539,11 +4083,11 @@
       <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>92</v>
+      <c r="A12" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="16">
         <v>3052500</v>
@@ -4555,13 +4099,13 @@
         <v>100</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="17">
         <v>4</v>
@@ -4584,9 +4128,9 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="87"/>
-      <c r="B13" s="61" t="s">
-        <v>93</v>
+      <c r="A13" s="84"/>
+      <c r="B13" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="16">
         <v>3052501</v>
@@ -4598,13 +4142,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="17">
         <v>4</v>
@@ -4627,11 +4171,11 @@
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>94</v>
+      <c r="A14" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="16">
         <v>3052510</v>
@@ -4643,13 +4187,13 @@
         <v>100</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="17">
         <v>4</v>
@@ -4672,9 +4216,9 @@
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="87"/>
-      <c r="B15" s="61" t="s">
-        <v>95</v>
+      <c r="A15" s="84"/>
+      <c r="B15" s="58" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="16">
         <v>3052511</v>
@@ -4686,13 +4230,13 @@
         <v>100</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I15" s="17">
         <v>4</v>
@@ -4715,11 +4259,11 @@
       <c r="W15" s="12"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>47</v>
+      <c r="B16" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="16">
         <v>3052600</v>
@@ -4731,10 +4275,10 @@
         <v>3001</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>23</v>
@@ -4760,9 +4304,9 @@
       <c r="W16" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="86"/>
-      <c r="B17" s="61" t="s">
-        <v>35</v>
+      <c r="A17" s="83"/>
+      <c r="B17" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="16">
         <v>3052601</v>
@@ -4774,10 +4318,10 @@
         <v>3002</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>23</v>
@@ -4803,9 +4347,9 @@
       <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="86"/>
-      <c r="B18" s="61" t="s">
-        <v>48</v>
+      <c r="A18" s="83"/>
+      <c r="B18" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="16">
         <v>3052602</v>
@@ -4817,10 +4361,10 @@
         <v>6001</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>22</v>
@@ -4846,9 +4390,9 @@
       <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="86"/>
-      <c r="B19" s="61" t="s">
-        <v>96</v>
+      <c r="A19" s="83"/>
+      <c r="B19" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="C19" s="16">
         <v>3052603</v>
@@ -4860,10 +4404,10 @@
         <v>100</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>17</v>
@@ -4889,9 +4433,9 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="86"/>
-      <c r="B20" s="61" t="s">
-        <v>97</v>
+      <c r="A20" s="83"/>
+      <c r="B20" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="C20" s="16">
         <v>3052604</v>
@@ -4903,10 +4447,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>18</v>
@@ -4932,9 +4476,9 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="86"/>
-      <c r="B21" s="61" t="s">
-        <v>98</v>
+      <c r="A21" s="83"/>
+      <c r="B21" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="C21" s="16">
         <v>3052605</v>
@@ -4946,10 +4490,10 @@
         <v>100</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>18</v>
@@ -4975,9 +4519,9 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="86"/>
-      <c r="B22" s="61" t="s">
-        <v>99</v>
+      <c r="A22" s="83"/>
+      <c r="B22" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="C22" s="16">
         <v>3052606</v>
@@ -4989,10 +4533,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>18</v>
@@ -5018,9 +4562,9 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="86"/>
-      <c r="B23" s="61" t="s">
-        <v>69</v>
+      <c r="A23" s="83"/>
+      <c r="B23" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="16">
         <v>3052607</v>
@@ -5032,13 +4576,13 @@
         <v>4000</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>0</v>
@@ -5061,9 +4605,9 @@
       <c r="W23" s="12"/>
     </row>
     <row r="24" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="87"/>
-      <c r="B24" s="61" t="s">
-        <v>70</v>
+      <c r="A24" s="84"/>
+      <c r="B24" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="16">
         <v>3052608</v>
@@ -5075,10 +4619,10 @@
         <v>4001</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>23</v>
@@ -5104,11 +4648,11 @@
       <c r="W24" s="12"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>47</v>
+      <c r="A25" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="16">
         <v>3052700</v>
@@ -5120,13 +4664,13 @@
         <v>3001</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>0</v>
@@ -5149,9 +4693,9 @@
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="86"/>
-      <c r="B26" s="61" t="s">
-        <v>35</v>
+      <c r="A26" s="83"/>
+      <c r="B26" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="16">
         <v>3052701</v>
@@ -5163,13 +4707,13 @@
         <v>3002</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>0</v>
@@ -5192,9 +4736,9 @@
       <c r="W26" s="11"/>
     </row>
     <row r="27" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="86"/>
-      <c r="B27" s="61" t="s">
-        <v>100</v>
+      <c r="A27" s="83"/>
+      <c r="B27" s="58" t="s">
+        <v>77</v>
       </c>
       <c r="C27" s="16">
         <v>3052702</v>
@@ -5206,13 +4750,13 @@
         <v>100</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I27" s="17">
         <v>5</v>
@@ -5235,9 +4779,9 @@
       <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="86"/>
-      <c r="B28" s="61" t="s">
-        <v>91</v>
+      <c r="A28" s="83"/>
+      <c r="B28" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="C28" s="16">
         <v>3052703</v>
@@ -5246,16 +4790,16 @@
         <v>305270</v>
       </c>
       <c r="E28" s="16">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>0</v>
@@ -5278,9 +4822,9 @@
       <c r="W28" s="12"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="86"/>
-      <c r="B29" s="61" t="s">
-        <v>101</v>
+      <c r="A29" s="83"/>
+      <c r="B29" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="C29" s="16">
         <v>3052704</v>
@@ -5292,13 +4836,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I29" s="17">
         <v>10</v>
@@ -5321,9 +4865,9 @@
       <c r="W29" s="12"/>
     </row>
     <row r="30" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="86"/>
-      <c r="B30" s="61" t="s">
-        <v>102</v>
+      <c r="A30" s="83"/>
+      <c r="B30" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="16">
         <v>3052705</v>
@@ -5335,13 +4879,13 @@
         <v>100</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I30" s="17">
         <v>10</v>
@@ -5364,9 +4908,9 @@
       <c r="W30" s="12"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="86"/>
-      <c r="B31" s="61" t="s">
-        <v>103</v>
+      <c r="A31" s="83"/>
+      <c r="B31" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="C31" s="16">
         <v>3052706</v>
@@ -5378,13 +4922,13 @@
         <v>100</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I31" s="17">
         <v>10</v>
@@ -5396,9 +4940,9 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="86"/>
-      <c r="B32" s="61" t="s">
-        <v>69</v>
+      <c r="A32" s="83"/>
+      <c r="B32" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="C32" s="16">
         <v>3052707</v>
@@ -5410,13 +4954,13 @@
         <v>4000</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>0</v>
@@ -5428,9 +4972,9 @@
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="87"/>
-      <c r="B33" s="61" t="s">
-        <v>70</v>
+      <c r="A33" s="84"/>
+      <c r="B33" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="C33" s="16">
         <v>3052708</v>
@@ -5442,13 +4986,13 @@
         <v>4001</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>0</v>

--- a/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Table(데이터 추가).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF4134B-A352-48D4-A2AE-3ADBE3283835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D7067-E4A8-4C87-AC8D-39B53227386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="114">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획용 COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>area_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,14 +188,6 @@
   </si>
   <si>
     <t>RECTANGLE</t>
-  </si>
-  <si>
-    <t>//효과 요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기본 공격 (난무 스탠스)</t>
@@ -460,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//스킬 &amp; 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1572,6 +1556,73 @@
         <scheme val="minor"/>
       </rPr>
       <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 스킬 명 &amp; 효과 (실제 데이터에는 적용 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격 (변형 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 공격 1타 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 공격 2타 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1585,7 +1636,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,6 +1806,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1818,7 +1885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2360,13 +2427,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2568,6 +2679,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2593,24 +2731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2622,14 +2742,44 @@
     <xf numFmtId="177" fontId="15" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3109,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3126,13 +3276,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3149,18 +3299,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -3178,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -3196,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -3214,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="39.6" x14ac:dyDescent="0.4">
@@ -3223,13 +3373,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="26.4" x14ac:dyDescent="0.4">
@@ -3238,13 +3388,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="26.4" x14ac:dyDescent="0.4">
@@ -3253,13 +3403,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -3268,13 +3418,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -3283,13 +3433,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3301,13 +3451,13 @@
     <row r="14" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="C16" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3315,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3329,13 +3479,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="85" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>90</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3343,13 +3493,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="85" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>21</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3357,13 +3507,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="49" t="s">
         <v>27</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
@@ -3371,45 +3521,45 @@
         <v>4</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>17</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="53"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="53"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="53"/>
     </row>
     <row r="26" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="54"/>
     </row>
     <row r="27" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
@@ -3417,47 +3567,47 @@
         <v>5</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>91</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="53"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="53"/>
     </row>
     <row r="32" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="54"/>
     </row>
     <row r="33" spans="3:6" ht="26.4" x14ac:dyDescent="0.4">
@@ -3465,53 +3615,53 @@
         <v>6</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>92</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="69"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="78"/>
       <c r="F34" s="53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="53"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="53"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="53"/>
     </row>
     <row r="39" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="73"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
       <c r="F39" s="54"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
@@ -3621,11 +3771,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:J10"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3649,10 +3799,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>8</v>
@@ -3664,19 +3814,19 @@
         <v>10</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -3693,11 +3843,11 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82" t="s">
-        <v>42</v>
+      <c r="A2" s="88" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="16">
         <v>3050000</v>
@@ -3709,13 +3859,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>0</v>
@@ -3738,9 +3888,9 @@
       <c r="W2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="84"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="16">
         <v>3050001</v>
@@ -3752,13 +3902,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>0</v>
@@ -3782,10 +3932,10 @@
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="16">
         <v>3050010</v>
@@ -3797,13 +3947,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>0</v>
@@ -3826,16 +3976,36 @@
       <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="59"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3050500</v>
+      </c>
+      <c r="D5" s="16">
+        <v>305050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="12"/>
@@ -3850,17 +4020,35 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
     </row>
-    <row r="6" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+    <row r="6" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="87"/>
+      <c r="B6" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3050501</v>
+      </c>
+      <c r="D6" s="16">
+        <v>305050</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="12"/>
@@ -3875,35 +4063,35 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="82" t="s">
-        <v>37</v>
+    <row r="7" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="85" t="s">
+        <v>110</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C7" s="16">
-        <v>3051800</v>
+        <v>3050510</v>
       </c>
       <c r="D7" s="16">
-        <v>305180</v>
+        <v>305051</v>
       </c>
       <c r="E7" s="16">
-        <v>1024</v>
+        <v>100</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="19"/>
@@ -3920,33 +4108,33 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="84"/>
+    <row r="8" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="86"/>
       <c r="B8" s="58" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C8" s="16">
-        <v>3051801</v>
+        <v>3050511</v>
       </c>
       <c r="D8" s="16">
-        <v>305180</v>
+        <v>305051</v>
       </c>
       <c r="E8" s="16">
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="17">
-        <v>4</v>
-      </c>
-      <c r="J8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="19"/>
@@ -3963,35 +4151,33 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="82" t="s">
-        <v>50</v>
-      </c>
+    <row r="9" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="87"/>
       <c r="B9" s="58" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C9" s="16">
-        <v>3051810</v>
+        <v>3050512</v>
       </c>
       <c r="D9" s="16">
-        <v>305181</v>
+        <v>305051</v>
       </c>
       <c r="E9" s="16">
-        <v>1024</v>
+        <v>100</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="19"/>
@@ -4008,66 +4194,82 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="84"/>
-      <c r="B10" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="16">
-        <v>3051811</v>
-      </c>
-      <c r="D10" s="16">
-        <v>305181</v>
-      </c>
-      <c r="E10" s="16">
-        <v>100</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="17">
-        <v>4</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="59" t="s">
-        <v>51</v>
+    <row r="10" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+    </row>
+    <row r="11" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="88" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3051800</v>
+      </c>
+      <c r="D11" s="16">
+        <v>305180</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1024</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="12"/>
@@ -4083,35 +4285,33 @@
       <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="82" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="88"/>
       <c r="B12" s="58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="16">
-        <v>3052500</v>
+        <v>3051801</v>
       </c>
       <c r="D12" s="16">
-        <v>305250</v>
+        <v>305180</v>
       </c>
       <c r="E12" s="16">
         <v>100</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I12" s="17">
         <v>4</v>
       </c>
-      <c r="J12" s="17">
-        <v>12</v>
+      <c r="J12" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -4128,33 +4328,35 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="84"/>
+      <c r="A13" s="88" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="58" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C13" s="16">
-        <v>3052501</v>
+        <v>3051810</v>
       </c>
       <c r="D13" s="16">
-        <v>305250</v>
+        <v>305181</v>
       </c>
       <c r="E13" s="16">
-        <v>100</v>
+        <v>1024</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="17">
-        <v>4</v>
-      </c>
-      <c r="J13" s="17">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -4171,35 +4373,33 @@
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="82" t="s">
-        <v>57</v>
-      </c>
+      <c r="A14" s="88"/>
       <c r="B14" s="58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="16">
-        <v>3052510</v>
+        <v>3051811</v>
       </c>
       <c r="D14" s="16">
-        <v>305251</v>
+        <v>305181</v>
       </c>
       <c r="E14" s="16">
         <v>100</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I14" s="17">
         <v>4</v>
       </c>
-      <c r="J14" s="17">
-        <v>12</v>
+      <c r="J14" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -4215,79 +4415,81 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="84"/>
-      <c r="B15" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="16">
-        <v>3052511</v>
-      </c>
-      <c r="D15" s="16">
-        <v>305251</v>
-      </c>
-      <c r="E15" s="16">
+    <row r="15" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+    </row>
+    <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3052500</v>
+      </c>
+      <c r="D16" s="16">
+        <v>305250</v>
+      </c>
+      <c r="E16" s="16">
         <v>100</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="F16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="17">
         <v>4</v>
       </c>
-      <c r="J15" s="17">
-        <v>16</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="16">
-        <v>3052600</v>
-      </c>
-      <c r="D16" s="16">
-        <v>305260</v>
-      </c>
-      <c r="E16" s="16">
-        <v>3001</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>0</v>
+      <c r="J16" s="17">
+        <v>12</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -4304,33 +4506,33 @@
       <c r="W16" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="83"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3052501</v>
+      </c>
+      <c r="D17" s="16">
+        <v>305250</v>
+      </c>
+      <c r="E17" s="16">
+        <v>100</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="16">
-        <v>3052601</v>
-      </c>
-      <c r="D17" s="16">
-        <v>305260</v>
-      </c>
-      <c r="E17" s="16">
-        <v>3002</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="G17" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="17">
+        <v>4</v>
+      </c>
+      <c r="J17" s="17">
+        <v>16</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -4347,33 +4549,35 @@
       <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="83"/>
+      <c r="A18" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="B18" s="58" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C18" s="16">
-        <v>3052602</v>
+        <v>3052510</v>
       </c>
       <c r="D18" s="16">
-        <v>305260</v>
+        <v>305251</v>
       </c>
       <c r="E18" s="16">
-        <v>6001</v>
+        <v>100</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="17">
+        <v>4</v>
+      </c>
+      <c r="J18" s="17">
+        <v>12</v>
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -4390,33 +4594,33 @@
       <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="83"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="58" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19" s="16">
-        <v>3052603</v>
+        <v>3052511</v>
       </c>
       <c r="D19" s="16">
-        <v>305260</v>
+        <v>305251</v>
       </c>
       <c r="E19" s="16">
         <v>100</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="17">
+        <v>4</v>
+      </c>
+      <c r="J19" s="17">
+        <v>16</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -4433,30 +4637,32 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="83"/>
+      <c r="A20" s="88" t="s">
+        <v>11</v>
+      </c>
       <c r="B20" s="58" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C20" s="16">
-        <v>3052604</v>
+        <v>3052600</v>
       </c>
       <c r="D20" s="16">
         <v>305260</v>
       </c>
       <c r="E20" s="16">
-        <v>100</v>
+        <v>3001</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="17">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>0</v>
@@ -4476,30 +4682,30 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="83"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="58" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C21" s="16">
-        <v>3052605</v>
+        <v>3052601</v>
       </c>
       <c r="D21" s="16">
         <v>305260</v>
       </c>
       <c r="E21" s="16">
-        <v>100</v>
+        <v>3002</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="17">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>0</v>
@@ -4519,30 +4725,30 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="83"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="58" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C22" s="16">
-        <v>3052606</v>
+        <v>3052602</v>
       </c>
       <c r="D22" s="16">
         <v>305260</v>
       </c>
       <c r="E22" s="16">
-        <v>100</v>
+        <v>6001</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="17">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>0</v>
@@ -4562,27 +4768,27 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="83"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="58" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C23" s="16">
-        <v>3052607</v>
+        <v>3052603</v>
       </c>
       <c r="D23" s="16">
         <v>305260</v>
       </c>
       <c r="E23" s="16">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>0</v>
@@ -4604,31 +4810,31 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
     </row>
-    <row r="24" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="84"/>
+    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="88"/>
       <c r="B24" s="58" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C24" s="16">
-        <v>3052608</v>
+        <v>3052604</v>
       </c>
       <c r="D24" s="16">
         <v>305260</v>
       </c>
       <c r="E24" s="16">
-        <v>4001</v>
+        <v>100</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I24" s="17">
+        <v>8</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>0</v>
@@ -4648,38 +4854,36 @@
       <c r="W24" s="12"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="82" t="s">
-        <v>49</v>
-      </c>
+      <c r="A25" s="88"/>
       <c r="B25" s="58" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C25" s="16">
-        <v>3052700</v>
+        <v>3052605</v>
       </c>
       <c r="D25" s="16">
-        <v>305270</v>
+        <v>305260</v>
       </c>
       <c r="E25" s="16">
-        <v>3001</v>
+        <v>100</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I25" s="17">
+        <v>8</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>0</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -4693,79 +4897,79 @@
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="83"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3052606</v>
+      </c>
+      <c r="D26" s="16">
+        <v>305260</v>
+      </c>
+      <c r="E26" s="16">
+        <v>100</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="16">
-        <v>3052701</v>
-      </c>
-      <c r="D26" s="16">
-        <v>305270</v>
-      </c>
-      <c r="E26" s="16">
-        <v>3002</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="G26" s="16" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I26" s="17">
+        <v>8</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="83"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="88"/>
       <c r="B27" s="58" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C27" s="16">
-        <v>3052702</v>
+        <v>3052607</v>
       </c>
       <c r="D27" s="16">
-        <v>305270</v>
+        <v>305260</v>
       </c>
       <c r="E27" s="16">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="17">
-        <v>5</v>
-      </c>
-      <c r="J27" s="17">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="K27" s="19"/>
-      <c r="L27" s="17"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -4779,27 +4983,27 @@
       <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="83"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="58" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C28" s="16">
-        <v>3052703</v>
+        <v>3052608</v>
       </c>
       <c r="D28" s="16">
-        <v>305270</v>
+        <v>305260</v>
       </c>
       <c r="E28" s="16">
         <v>4001</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>98</v>
+        <v>34</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>0</v>
@@ -4822,36 +5026,38 @@
       <c r="W28" s="12"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="83"/>
+      <c r="A29" s="88" t="s">
+        <v>46</v>
+      </c>
       <c r="B29" s="58" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C29" s="16">
-        <v>3052704</v>
+        <v>3052700</v>
       </c>
       <c r="D29" s="16">
         <v>305270</v>
       </c>
       <c r="E29" s="16">
-        <v>100</v>
+        <v>3001</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="17">
-        <v>10</v>
-      </c>
-      <c r="J29" s="17">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="17"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -4864,56 +5070,56 @@
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
     </row>
-    <row r="30" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="83"/>
+    <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="88"/>
       <c r="B30" s="58" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C30" s="16">
-        <v>3052705</v>
+        <v>3052701</v>
       </c>
       <c r="D30" s="16">
         <v>305270</v>
       </c>
       <c r="E30" s="16">
-        <v>100</v>
+        <v>3002</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="17">
-        <v>10</v>
-      </c>
-      <c r="J30" s="17">
-        <v>8</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-    </row>
-    <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="83"/>
+        <v>45</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+    </row>
+    <row r="31" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="88"/>
       <c r="B31" s="58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C31" s="16">
-        <v>3052706</v>
+        <v>3052702</v>
       </c>
       <c r="D31" s="16">
         <v>305270</v>
@@ -4922,45 +5128,56 @@
         <v>100</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>39</v>
+        <v>96</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="I31" s="17">
+        <v>5</v>
+      </c>
+      <c r="J31" s="17">
         <v>10</v>
       </c>
-      <c r="J31" s="17">
-        <v>5</v>
-      </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="83"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="88"/>
       <c r="B32" s="58" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C32" s="16">
-        <v>3052707</v>
+        <v>3052703</v>
       </c>
       <c r="D32" s="16">
         <v>305270</v>
       </c>
       <c r="E32" s="16">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>0</v>
@@ -4968,102 +5185,250 @@
       <c r="J32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="84"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="88"/>
       <c r="B33" s="58" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C33" s="16">
-        <v>3052708</v>
+        <v>3052704</v>
       </c>
       <c r="D33" s="16">
         <v>305270</v>
       </c>
       <c r="E33" s="16">
-        <v>4001</v>
+        <v>100</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>106</v>
+        <v>34</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="I33" s="17">
+        <v>10</v>
+      </c>
+      <c r="J33" s="17">
+        <v>8</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:23" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="88"/>
+      <c r="B34" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="16">
+        <v>3052705</v>
+      </c>
+      <c r="D34" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E34" s="16">
+        <v>100</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="17">
+        <v>10</v>
+      </c>
+      <c r="J34" s="17">
+        <v>8</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="88"/>
+      <c r="B35" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="16">
+        <v>3052706</v>
+      </c>
+      <c r="D35" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E35" s="16">
+        <v>100</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="17">
+        <v>10</v>
+      </c>
+      <c r="J35" s="17">
+        <v>5</v>
+      </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="15"/>
+    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="88"/>
+      <c r="B36" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="16">
+        <v>3052707</v>
+      </c>
+      <c r="D36" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E36" s="16">
+        <v>4000</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="88"/>
+      <c r="B37" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="16">
+        <v>3052708</v>
+      </c>
+      <c r="D37" s="16">
+        <v>305270</v>
+      </c>
+      <c r="E37" s="16">
+        <v>4001</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+    </row>
+    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="16"/>
       <c r="D39" s="19"/>
       <c r="E39" s="16"/>
@@ -5072,16 +5437,64 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="100"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A33"/>
+  <mergeCells count="9">
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
